--- a/Materials/BOM Tibe 1MCT3.xlsx
+++ b/Materials/BOM Tibe 1MCT3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthowest-my.sharepoint.com/personal/tibe_demeulemeester_student_howest_be/Documents/Documenten/school/semester 2/project one/milestones/Instructables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="13_ncr:1_{221305E3-BDAD-054E-A5AE-15C01C2403CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A6D380B-8C54-4A99-8618-19599BC29974}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{221305E3-BDAD-054E-A5AE-15C01C2403CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF23544-BEC7-4B25-AD23-E5681697F282}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -856,7 +856,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
+      <xdr:colOff>1181100</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111919</xdr:rowOff>
     </xdr:to>
@@ -1165,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1176,8 +1176,8 @@
     <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="8.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="6.375" style="4" customWidth="1"/>
     <col min="9" max="10" width="8.625" style="4" customWidth="1"/>
     <col min="11" max="11" width="8.375" style="4" customWidth="1"/>
@@ -1667,7 +1667,9 @@
         <f>BillOfMaterials!$E15*BillOfMaterials!$I15</f>
         <v>49.95</v>
       </c>
-      <c r="K15" s="32"/>
+      <c r="K15" s="32">
+        <v>49.95</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -1716,7 +1718,9 @@
         <f>BillOfMaterials!$E16*BillOfMaterials!$I16</f>
         <v>10.99</v>
       </c>
-      <c r="K16" s="32"/>
+      <c r="K16" s="32">
+        <v>4.5</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -1765,7 +1769,9 @@
         <f>BillOfMaterials!$E17*BillOfMaterials!$I17</f>
         <v>0.89</v>
       </c>
-      <c r="K17" s="32"/>
+      <c r="K17" s="32">
+        <v>0.3</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -1814,7 +1820,9 @@
         <f>BillOfMaterials!$E18*BillOfMaterials!$I18</f>
         <v>5</v>
       </c>
-      <c r="K18" s="32"/>
+      <c r="K18" s="32">
+        <v>5</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1863,7 +1871,9 @@
         <f>BillOfMaterials!$E19*BillOfMaterials!$I19</f>
         <v>6.6</v>
       </c>
-      <c r="K19" s="32"/>
+      <c r="K19" s="32">
+        <v>3</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -1912,7 +1922,9 @@
         <f>BillOfMaterials!$E20*BillOfMaterials!$I20</f>
         <v>4.87</v>
       </c>
-      <c r="K20" s="32"/>
+      <c r="K20" s="32">
+        <v>2.5</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -1961,7 +1973,9 @@
         <f>BillOfMaterials!$E21*BillOfMaterials!$I21</f>
         <v>2.5299999999999998</v>
       </c>
-      <c r="K21" s="32"/>
+      <c r="K21" s="32">
+        <v>0.4</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2010,7 +2024,9 @@
         <f>BillOfMaterials!$E22*BillOfMaterials!$I22</f>
         <v>5.97</v>
       </c>
-      <c r="K22" s="32"/>
+      <c r="K22" s="32">
+        <v>1.5</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2059,7 +2075,9 @@
         <f>BillOfMaterials!$E23*BillOfMaterials!$I23</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="K23" s="32"/>
+      <c r="K23" s="32">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2108,7 +2126,9 @@
         <f>BillOfMaterials!$E24*BillOfMaterials!$I24</f>
         <v>2.5</v>
       </c>
-      <c r="K24" s="32"/>
+      <c r="K24" s="32">
+        <v>2.5</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2157,7 +2177,9 @@
         <f>BillOfMaterials!$E25*BillOfMaterials!$I25</f>
         <v>3.5</v>
       </c>
-      <c r="K25" s="32"/>
+      <c r="K25" s="32">
+        <v>3.5</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
@@ -2206,7 +2228,9 @@
         <f>BillOfMaterials!$E26*BillOfMaterials!$I26</f>
         <v>4</v>
       </c>
-      <c r="K26" s="32"/>
+      <c r="K26" s="32">
+        <v>4</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2255,7 +2279,9 @@
         <f>BillOfMaterials!$E27*BillOfMaterials!$I27</f>
         <v>2</v>
       </c>
-      <c r="K27" s="32"/>
+      <c r="K27" s="32">
+        <v>2</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -2304,7 +2330,9 @@
         <f>BillOfMaterials!$E28*BillOfMaterials!$I28</f>
         <v>9.8699999999999992</v>
       </c>
-      <c r="K28" s="32"/>
+      <c r="K28" s="32">
+        <v>8</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2353,7 +2381,9 @@
         <f>BillOfMaterials!$E29*BillOfMaterials!$I29</f>
         <v>1</v>
       </c>
-      <c r="K29" s="32"/>
+      <c r="K29" s="32">
+        <v>1</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -2389,7 +2419,10 @@
         <f>SUBTOTAL(109,BillOfMaterials!$J$15:$J$29)</f>
         <v>117.87000000000002</v>
       </c>
-      <c r="K30" s="32"/>
+      <c r="K30" s="33">
+        <f>SUBTOTAL(109,BillOfMaterials!$K$15:$K$29)</f>
+        <v>96.350000000000009</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -29432,6 +29465,7 @@
     <hyperlink ref="G29" r:id="rId30" xr:uid="{D9BCB1F1-7C10-43EF-8E0F-BB1631AFDF83}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>